--- a/GL190_TestData_ReversalCriteriaSetsandAutoReversal_21B.xlsx
+++ b/GL190_TestData_ReversalCriteriaSetsandAutoReversal_21B.xlsx
@@ -1,168 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C1544-553C-443A-86A6-EF5BC39E8DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
-    <sheet name="Output_Value" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Value" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output_Value" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is unique field.
-Provide proper Name
-[It can be Alpha-Numeric]</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>HighWait</t>
-  </si>
-  <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
-    <t>LowExplicitWait</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>HighestExplicitWait</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>SearchCategory</t>
-  </si>
-  <si>
-    <t>SelectReversalPeriod</t>
-  </si>
-  <si>
-    <t>AutoReversalOption</t>
-  </si>
-  <si>
-    <t>ReversalPeriod</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Manage Journal Rever%</t>
-  </si>
-  <si>
-    <t>AutoTest3</t>
-  </si>
-  <si>
-    <t>Next nonadjusting period</t>
-  </si>
-  <si>
-    <t>Reverse Automatically</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>ProcessIDAct</t>
-  </si>
-  <si>
-    <t>669866</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,36 +72,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -520,173 +396,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" width="22.453125"/>
+    <col collapsed="1" customWidth="1" max="2" min="2" width="20.08984375"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="3" min="3" width="11.1796875"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="4" min="4" width="14.81640625"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="5" min="5" width="24"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="6" min="6" width="21.1796875"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="7" min="7" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" width="16.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row customFormat="1" r="1" s="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>SearchCategory</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>SelectReversalPeriod</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>AutoReversalOption</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>ReversalPeriod</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>LowWait</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>MediumWait</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>HighWait</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>HighestWait</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>LowExplicitWait</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>MediumExplicitWait</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>LongExplicitWait</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>HighestExplicitWait</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="5">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Manage Journal Rever%</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>AutoTest27</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>AutoTest</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>AutoTest</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>Next nonadjusting period</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Reverse Automatically</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="J2" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
+      <c r="M2" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>120</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2"/>
+    <row customHeight="1" ht="58" r="5">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>This is unique field.
+Provide proper Name
+[It can be Alpha-Numeric]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" width="16.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ProcessIDAct</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>768158</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>